--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rca6e386e05f84780"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R2bbd03726c2845dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R2bbd03726c2845dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra2a6430038474361"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra2a6430038474361"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf921ab181b4f4f44"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf921ab181b4f4f44"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1037ed7cc4ee467f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1037ed7cc4ee467f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R5d6d9e3f79ed4c11"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R5d6d9e3f79ed4c11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R6732e4e9c03f4704"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R6732e4e9c03f4704"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra22a833572e04cbe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra22a833572e04cbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1dafd1e66de345da"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1dafd1e66de345da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R76a6743556b54b9c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R76a6743556b54b9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R891d4dba40444626"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R891d4dba40444626"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rc9c483bcf13b44e6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,40 +29,40 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rc9c483bcf13b44e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R93fb6d3068944aba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,40 +29,40 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/016_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R93fb6d3068944aba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R295663b3ae584216"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
